--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-10_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-10_valid.xlsx
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4623</v>
+        <v>4737</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>818.2300884955752</v>
+        <v>838.4070796460177</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="CL31">
-        <v>0.9626236335242061</v>
+        <v>0.9863612701717855</v>
       </c>
       <c r="CM31">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0.01363636363636364</v>
       </c>
       <c r="DA31">
-        <v>0.6856052930838418</v>
+        <v>0.6997477514731729</v>
       </c>
     </row>
     <row r="32" spans="1:105">
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="O38">
         <v>1211</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AZ38">
-        <v>69.04109589041096</v>
+        <v>118.3561643835616</v>
       </c>
       <c r="BA38">
         <v>558.9230769230769</v>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="CL38">
-        <v>0.08122481869460113</v>
+        <v>0.1392425463336019</v>
       </c>
       <c r="CM38">
         <v>0.6986538461538462</v>
@@ -13170,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="DA38">
-        <v>0.6294646139705882</v>
+        <v>0.6404940257352941</v>
       </c>
     </row>
     <row r="39" spans="1:105">
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>7828</v>
+        <v>7967</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="AZ43">
-        <v>815.4166666666667</v>
+        <v>829.8958333333334</v>
       </c>
       <c r="BA43">
         <v>0</v>
@@ -14710,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="CL43">
-        <v>0.9593137254901962</v>
+        <v>0.9763480392156864</v>
       </c>
       <c r="CM43">
         <v>0</v>
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>0.9593137254901962</v>
+        <v>0.9763480392156864</v>
       </c>
     </row>
     <row r="44" spans="1:105">
